--- a/data/adc_kolesterol.xlsx
+++ b/data/adc_kolesterol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\akm\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0375F988-C61A-437E-8F71-F04A4CA1FABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862A6EFC-A12B-4542-8C54-8FEAB0175F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="10230" xr2:uid="{494C2FCE-ED45-4A91-B786-25AC174F8F65}"/>
+    <workbookView xWindow="-28920" yWindow="-4365" windowWidth="29040" windowHeight="14910" xr2:uid="{494C2FCE-ED45-4A91-B786-25AC174F8F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18746" uniqueCount="1884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18747" uniqueCount="1885">
   <si>
     <t>violet 1</t>
   </si>
@@ -5683,6 +5683,9 @@
   </si>
   <si>
     <t>1167.29</t>
+  </si>
+  <si>
+    <t>real</t>
   </si>
 </sst>
 </file>
@@ -5720,7 +5723,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -5743,15 +5746,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6066,15 +6084,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A072A3AE-06D3-40D8-83FD-BF9858BD41DF}">
-  <dimension ref="A1:DP157"/>
+  <dimension ref="A1:DQ189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="CN1" workbookViewId="0">
+      <selection activeCell="DO4" sqref="DO4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6435,8 +6453,11 @@
       <c r="DP1" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="DQ1" s="2" t="s">
+        <v>1884</v>
+      </c>
     </row>
-    <row r="2" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -6797,8 +6818,11 @@
       <c r="DP2" t="s">
         <v>192</v>
       </c>
+      <c r="DQ2" s="3">
+        <v>242</v>
+      </c>
     </row>
-    <row r="3" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>195</v>
       </c>
@@ -7159,8 +7183,11 @@
       <c r="DP3" t="s">
         <v>233</v>
       </c>
+      <c r="DQ3" s="3">
+        <v>174</v>
+      </c>
     </row>
-    <row r="4" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>236</v>
       </c>
@@ -7521,8 +7548,11 @@
       <c r="DP4" t="s">
         <v>190</v>
       </c>
+      <c r="DQ4" s="3">
+        <v>245</v>
+      </c>
     </row>
-    <row r="5" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>295</v>
       </c>
@@ -7883,8 +7913,11 @@
       <c r="DP5" t="s">
         <v>332</v>
       </c>
+      <c r="DQ5" s="3">
+        <v>220</v>
+      </c>
     </row>
-    <row r="6" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>335</v>
       </c>
@@ -8245,8 +8278,11 @@
       <c r="DP6" t="s">
         <v>185</v>
       </c>
+      <c r="DQ6" s="3">
+        <v>242</v>
+      </c>
     </row>
-    <row r="7" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>358</v>
       </c>
@@ -8607,8 +8643,11 @@
       <c r="DP7" t="s">
         <v>384</v>
       </c>
+      <c r="DQ7" s="3">
+        <v>219</v>
+      </c>
     </row>
-    <row r="8" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>386</v>
       </c>
@@ -8969,8 +9008,11 @@
       <c r="DP8" t="s">
         <v>235</v>
       </c>
+      <c r="DQ8" s="3">
+        <v>254</v>
+      </c>
     </row>
-    <row r="9" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>307</v>
       </c>
@@ -9331,8 +9373,11 @@
       <c r="DP9" t="s">
         <v>333</v>
       </c>
+      <c r="DQ9" s="3">
+        <v>221</v>
+      </c>
     </row>
-    <row r="10" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>449</v>
       </c>
@@ -9693,8 +9738,11 @@
       <c r="DP10" t="s">
         <v>469</v>
       </c>
+      <c r="DQ10" s="3">
+        <v>275</v>
+      </c>
     </row>
-    <row r="11" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>470</v>
       </c>
@@ -10055,8 +10103,11 @@
       <c r="DP11" t="s">
         <v>510</v>
       </c>
+      <c r="DQ11" s="3">
+        <v>273</v>
+      </c>
     </row>
-    <row r="12" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>344</v>
       </c>
@@ -10417,8 +10468,11 @@
       <c r="DP12" t="s">
         <v>427</v>
       </c>
+      <c r="DQ12" s="3">
+        <v>199</v>
+      </c>
     </row>
-    <row r="13" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>527</v>
       </c>
@@ -10779,8 +10833,11 @@
       <c r="DP13" t="s">
         <v>187</v>
       </c>
+      <c r="DQ13" s="3">
+        <v>149</v>
+      </c>
     </row>
-    <row r="14" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>549</v>
       </c>
@@ -11141,8 +11198,11 @@
       <c r="DP14" t="s">
         <v>330</v>
       </c>
+      <c r="DQ14" s="3">
+        <v>229</v>
+      </c>
     </row>
-    <row r="15" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>574</v>
       </c>
@@ -11503,8 +11563,11 @@
       <c r="DP15" t="s">
         <v>430</v>
       </c>
+      <c r="DQ15" s="3">
+        <v>213</v>
+      </c>
     </row>
-    <row r="16" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>587</v>
       </c>
@@ -11865,8 +11928,11 @@
       <c r="DP16" t="s">
         <v>658</v>
       </c>
+      <c r="DQ16" s="3">
+        <v>250</v>
+      </c>
     </row>
-    <row r="17" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>659</v>
       </c>
@@ -12227,8 +12293,11 @@
       <c r="DP17">
         <v>71</v>
       </c>
+      <c r="DQ17" s="3">
+        <v>220</v>
+      </c>
     </row>
-    <row r="18" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>674</v>
       </c>
@@ -12589,8 +12658,11 @@
       <c r="DP18">
         <v>142</v>
       </c>
+      <c r="DQ18" s="3">
+        <v>193</v>
+      </c>
     </row>
-    <row r="19" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>753</v>
       </c>
@@ -12951,8 +13023,11 @@
       <c r="DP19" t="s">
         <v>188</v>
       </c>
+      <c r="DQ19" s="3">
+        <v>256</v>
+      </c>
     </row>
-    <row r="20" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>764</v>
       </c>
@@ -13313,8 +13388,11 @@
       <c r="DP20" t="s">
         <v>293</v>
       </c>
+      <c r="DQ20" s="3">
+        <v>196</v>
+      </c>
     </row>
-    <row r="21" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>779</v>
       </c>
@@ -13675,8 +13753,11 @@
       <c r="DP21" t="s">
         <v>803</v>
       </c>
+      <c r="DQ21" s="3">
+        <v>213</v>
+      </c>
     </row>
-    <row r="22" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>444</v>
       </c>
@@ -14037,8 +14118,11 @@
       <c r="DP22" t="s">
         <v>331</v>
       </c>
+      <c r="DQ22" s="3">
+        <v>243</v>
+      </c>
     </row>
-    <row r="23" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>815</v>
       </c>
@@ -14399,8 +14483,11 @@
       <c r="DP23" t="s">
         <v>384</v>
       </c>
+      <c r="DQ23" s="3">
+        <v>186</v>
+      </c>
     </row>
-    <row r="24" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>400</v>
       </c>
@@ -14761,8 +14848,11 @@
       <c r="DP24" t="s">
         <v>426</v>
       </c>
+      <c r="DQ24" s="3">
+        <v>211</v>
+      </c>
     </row>
-    <row r="25" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>844</v>
       </c>
@@ -15123,8 +15213,11 @@
       <c r="DP25" t="s">
         <v>509</v>
       </c>
+      <c r="DQ25" s="3">
+        <v>224</v>
+      </c>
     </row>
-    <row r="26" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>755</v>
       </c>
@@ -15485,8 +15578,11 @@
       <c r="DP26" t="s">
         <v>294</v>
       </c>
+      <c r="DQ26" s="3">
+        <v>222</v>
+      </c>
     </row>
-    <row r="27" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>858</v>
       </c>
@@ -15847,8 +15943,11 @@
       <c r="DP27" t="s">
         <v>884</v>
       </c>
+      <c r="DQ27" s="3">
+        <v>252</v>
+      </c>
     </row>
-    <row r="28" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>885</v>
       </c>
@@ -16209,8 +16308,11 @@
       <c r="DP28" t="s">
         <v>778</v>
       </c>
+      <c r="DQ28" s="3">
+        <v>226</v>
+      </c>
     </row>
-    <row r="29" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>901</v>
       </c>
@@ -16571,8 +16673,11 @@
       <c r="DP29" t="s">
         <v>956</v>
       </c>
+      <c r="DQ29" s="3">
+        <v>159</v>
+      </c>
     </row>
-    <row r="30" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>303</v>
       </c>
@@ -16933,8 +17038,11 @@
       <c r="DP30" t="s">
         <v>384</v>
       </c>
+      <c r="DQ30" s="3">
+        <v>166</v>
+      </c>
     </row>
-    <row r="31" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>959</v>
       </c>
@@ -17295,8 +17403,11 @@
       <c r="DP31" t="s">
         <v>742</v>
       </c>
+      <c r="DQ31" s="3">
+        <v>175</v>
+      </c>
     </row>
-    <row r="32" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1017</v>
       </c>
@@ -17657,8 +17768,11 @@
       <c r="DP32" t="s">
         <v>884</v>
       </c>
+      <c r="DQ32" s="3">
+        <v>210</v>
+      </c>
     </row>
-    <row r="33" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1039</v>
       </c>
@@ -18019,8 +18133,11 @@
       <c r="DP33" t="s">
         <v>1091</v>
       </c>
+      <c r="DQ33" s="3">
+        <v>163</v>
+      </c>
     </row>
-    <row r="34" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1095</v>
       </c>
@@ -18381,8 +18498,11 @@
       <c r="DP34" t="s">
         <v>329</v>
       </c>
+      <c r="DQ34" s="3">
+        <v>206</v>
+      </c>
     </row>
-    <row r="35" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>460</v>
       </c>
@@ -18743,8 +18863,11 @@
       <c r="DP35" t="s">
         <v>184</v>
       </c>
+      <c r="DQ35" s="3">
+        <v>219</v>
+      </c>
     </row>
-    <row r="36" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1123</v>
       </c>
@@ -19105,8 +19228,11 @@
       <c r="DP36" t="s">
         <v>383</v>
       </c>
+      <c r="DQ36" s="3">
+        <v>292</v>
+      </c>
     </row>
-    <row r="37" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1142</v>
       </c>
@@ -19467,8 +19593,11 @@
       <c r="DP37" t="s">
         <v>233</v>
       </c>
+      <c r="DQ37" s="3">
+        <v>223</v>
+      </c>
     </row>
-    <row r="38" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1154</v>
       </c>
@@ -19829,8 +19958,11 @@
       <c r="DP38" t="s">
         <v>505</v>
       </c>
+      <c r="DQ38" s="3">
+        <v>253</v>
+      </c>
     </row>
-    <row r="39" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1167</v>
       </c>
@@ -20191,8 +20323,11 @@
       <c r="DP39" t="s">
         <v>332</v>
       </c>
+      <c r="DQ39" s="3">
+        <v>258</v>
+      </c>
     </row>
-    <row r="40" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1181</v>
       </c>
@@ -20553,8 +20688,11 @@
       <c r="DP40" t="s">
         <v>333</v>
       </c>
+      <c r="DQ40" s="3">
+        <v>205</v>
+      </c>
     </row>
-    <row r="41" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>352</v>
       </c>
@@ -20915,8 +21053,11 @@
       <c r="DP41" t="s">
         <v>507</v>
       </c>
+      <c r="DQ41" s="3">
+        <v>170</v>
+      </c>
     </row>
-    <row r="42" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1202</v>
       </c>
@@ -21277,8 +21418,11 @@
       <c r="DP42" t="s">
         <v>183</v>
       </c>
+      <c r="DQ42" s="3">
+        <v>230</v>
+      </c>
     </row>
-    <row r="43" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1211</v>
       </c>
@@ -21639,8 +21783,11 @@
       <c r="DP43" t="s">
         <v>191</v>
       </c>
+      <c r="DQ43" s="3">
+        <v>129</v>
+      </c>
     </row>
-    <row r="44" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1216</v>
       </c>
@@ -22001,8 +22148,11 @@
       <c r="DP44" t="s">
         <v>329</v>
       </c>
+      <c r="DQ44" s="3">
+        <v>218</v>
+      </c>
     </row>
-    <row r="45" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>341</v>
       </c>
@@ -22363,8 +22513,11 @@
       <c r="DP45" t="s">
         <v>508</v>
       </c>
+      <c r="DQ45" s="3">
+        <v>182</v>
+      </c>
     </row>
-    <row r="46" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>238</v>
       </c>
@@ -22725,8 +22878,11 @@
       <c r="DP46" t="s">
         <v>427</v>
       </c>
+      <c r="DQ46" s="3">
+        <v>196</v>
+      </c>
     </row>
-    <row r="47" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1234</v>
       </c>
@@ -23087,8 +23243,11 @@
       <c r="DP47" t="s">
         <v>187</v>
       </c>
+      <c r="DQ47" s="3">
+        <v>202</v>
+      </c>
     </row>
-    <row r="48" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1183</v>
       </c>
@@ -23449,8 +23608,9 @@
       <c r="DP48" t="s">
         <v>505</v>
       </c>
+      <c r="DQ48" s="3"/>
     </row>
-    <row r="49" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1250</v>
       </c>
@@ -23811,8 +23971,11 @@
       <c r="DP49" t="s">
         <v>435</v>
       </c>
+      <c r="DQ49" s="3">
+        <v>258</v>
+      </c>
     </row>
-    <row r="50" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>531</v>
       </c>
@@ -24173,8 +24336,11 @@
       <c r="DP50" t="s">
         <v>469</v>
       </c>
+      <c r="DQ50" s="3">
+        <v>209</v>
+      </c>
     </row>
-    <row r="51" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>240</v>
       </c>
@@ -24535,8 +24701,11 @@
       <c r="DP51" t="s">
         <v>233</v>
       </c>
+      <c r="DQ51" s="3">
+        <v>221</v>
+      </c>
     </row>
-    <row r="52" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>307</v>
       </c>
@@ -24897,8 +25066,11 @@
       <c r="DP52" t="s">
         <v>330</v>
       </c>
+      <c r="DQ52" s="3">
+        <v>197</v>
+      </c>
     </row>
-    <row r="53" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>389</v>
       </c>
@@ -25259,8 +25431,11 @@
       <c r="DP53" t="s">
         <v>333</v>
       </c>
+      <c r="DQ53" s="3">
+        <v>239</v>
+      </c>
     </row>
-    <row r="54" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1292</v>
       </c>
@@ -25621,8 +25796,11 @@
       <c r="DP54" t="s">
         <v>1141</v>
       </c>
+      <c r="DQ54" s="3">
+        <v>191</v>
+      </c>
     </row>
-    <row r="55" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>108</v>
       </c>
@@ -25983,8 +26161,11 @@
       <c r="DP55" t="s">
         <v>1322</v>
       </c>
+      <c r="DQ55" s="3">
+        <v>220</v>
+      </c>
     </row>
-    <row r="56" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1323</v>
       </c>
@@ -26345,8 +26526,11 @@
       <c r="DP56" t="s">
         <v>509</v>
       </c>
+      <c r="DQ56" s="3">
+        <v>242</v>
+      </c>
     </row>
-    <row r="57" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>659</v>
       </c>
@@ -26707,8 +26891,11 @@
       <c r="DP57">
         <v>71</v>
       </c>
+      <c r="DQ57" s="3">
+        <v>333</v>
+      </c>
     </row>
-    <row r="58" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>554</v>
       </c>
@@ -27069,8 +27256,11 @@
       <c r="DP58" t="s">
         <v>383</v>
       </c>
+      <c r="DQ58" s="3">
+        <v>219</v>
+      </c>
     </row>
-    <row r="59" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>470</v>
       </c>
@@ -27431,8 +27621,11 @@
       <c r="DP59" t="s">
         <v>510</v>
       </c>
+      <c r="DQ59" s="3">
+        <v>193</v>
+      </c>
     </row>
-    <row r="60" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1183</v>
       </c>
@@ -27793,8 +27986,11 @@
       <c r="DP60" t="s">
         <v>330</v>
       </c>
+      <c r="DQ60" s="3">
+        <v>193</v>
+      </c>
     </row>
-    <row r="61" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1352</v>
       </c>
@@ -28155,8 +28351,11 @@
       <c r="DP61" t="s">
         <v>884</v>
       </c>
+      <c r="DQ61" s="3">
+        <v>160</v>
+      </c>
     </row>
-    <row r="62" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1360</v>
       </c>
@@ -28517,8 +28716,11 @@
       <c r="DP62" t="s">
         <v>505</v>
       </c>
+      <c r="DQ62" s="3">
+        <v>208</v>
+      </c>
     </row>
-    <row r="63" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1365</v>
       </c>
@@ -28879,8 +29081,11 @@
       <c r="DP63" t="s">
         <v>508</v>
       </c>
+      <c r="DQ63" s="3">
+        <v>170</v>
+      </c>
     </row>
-    <row r="64" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1126</v>
       </c>
@@ -29241,8 +29446,11 @@
       <c r="DP64" t="s">
         <v>1306</v>
       </c>
+      <c r="DQ64" s="3">
+        <v>214</v>
+      </c>
     </row>
-    <row r="65" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>808</v>
       </c>
@@ -29603,8 +29811,11 @@
       <c r="DP65" t="s">
         <v>331</v>
       </c>
+      <c r="DQ65" s="3">
+        <v>70</v>
+      </c>
     </row>
-    <row r="66" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1387</v>
       </c>
@@ -29965,8 +30176,11 @@
       <c r="DP66" t="s">
         <v>884</v>
       </c>
+      <c r="DQ66" s="3">
+        <v>161</v>
+      </c>
     </row>
-    <row r="67" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>228</v>
       </c>
@@ -30327,8 +30541,11 @@
       <c r="DP67" t="s">
         <v>1403</v>
       </c>
+      <c r="DQ67" s="3">
+        <v>205</v>
+      </c>
     </row>
-    <row r="68" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>228</v>
       </c>
@@ -30689,8 +30906,11 @@
       <c r="DP68" t="s">
         <v>1403</v>
       </c>
+      <c r="DQ68" s="3">
+        <v>195</v>
+      </c>
     </row>
-    <row r="69" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>832</v>
       </c>
@@ -31051,8 +31271,11 @@
       <c r="DP69" t="s">
         <v>510</v>
       </c>
+      <c r="DQ69" s="3">
+        <v>172</v>
+      </c>
     </row>
-    <row r="70" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1352</v>
       </c>
@@ -31413,8 +31636,11 @@
       <c r="DP70" t="s">
         <v>382</v>
       </c>
+      <c r="DQ70" s="3">
+        <v>180</v>
+      </c>
     </row>
-    <row r="71" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1411</v>
       </c>
@@ -31775,8 +32001,11 @@
       <c r="DP71" t="s">
         <v>1338</v>
       </c>
+      <c r="DQ71" s="3">
+        <v>211</v>
+      </c>
     </row>
-    <row r="72" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1418</v>
       </c>
@@ -32137,8 +32366,11 @@
       <c r="DP72" t="s">
         <v>331</v>
       </c>
+      <c r="DQ72" s="3">
+        <v>216</v>
+      </c>
     </row>
-    <row r="73" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1420</v>
       </c>
@@ -32499,8 +32731,11 @@
       <c r="DP73" t="s">
         <v>1166</v>
       </c>
+      <c r="DQ73" s="3">
+        <v>250</v>
+      </c>
     </row>
-    <row r="74" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>470</v>
       </c>
@@ -32861,8 +33096,11 @@
       <c r="DP74" t="s">
         <v>510</v>
       </c>
+      <c r="DQ74" s="3">
+        <v>307</v>
+      </c>
     </row>
-    <row r="75" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1342</v>
       </c>
@@ -33223,8 +33461,11 @@
       <c r="DP75" t="s">
         <v>1141</v>
       </c>
+      <c r="DQ75" s="3">
+        <v>224</v>
+      </c>
     </row>
-    <row r="76" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1425</v>
       </c>
@@ -33585,8 +33826,11 @@
       <c r="DP76" t="s">
         <v>431</v>
       </c>
+      <c r="DQ76" s="3">
+        <v>243</v>
+      </c>
     </row>
-    <row r="77" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>228</v>
       </c>
@@ -33947,8 +34191,11 @@
       <c r="DP77" t="s">
         <v>1403</v>
       </c>
+      <c r="DQ77" s="3">
+        <v>248</v>
+      </c>
     </row>
-    <row r="78" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1208</v>
       </c>
@@ -34309,8 +34556,11 @@
       <c r="DP78" t="s">
         <v>803</v>
       </c>
+      <c r="DQ78" s="3">
+        <v>186</v>
+      </c>
     </row>
-    <row r="79" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>476</v>
       </c>
@@ -34671,8 +34921,11 @@
       <c r="DP79" t="s">
         <v>526</v>
       </c>
+      <c r="DQ79" s="3">
+        <v>252</v>
+      </c>
     </row>
-    <row r="80" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>886</v>
       </c>
@@ -35033,8 +35286,11 @@
       <c r="DP80" t="s">
         <v>803</v>
       </c>
+      <c r="DQ80" s="3">
+        <v>214</v>
+      </c>
     </row>
-    <row r="81" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1126</v>
       </c>
@@ -35395,8 +35651,11 @@
       <c r="DP81" t="s">
         <v>1306</v>
       </c>
+      <c r="DQ81" s="3">
+        <v>250</v>
+      </c>
     </row>
-    <row r="82" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1456</v>
       </c>
@@ -35757,8 +36016,11 @@
       <c r="DP82" t="s">
         <v>334</v>
       </c>
+      <c r="DQ82" s="3">
+        <v>254</v>
+      </c>
     </row>
-    <row r="83" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>869</v>
       </c>
@@ -36119,8 +36381,11 @@
       <c r="DP83" t="s">
         <v>1305</v>
       </c>
+      <c r="DQ83" s="3">
+        <v>232</v>
+      </c>
     </row>
-    <row r="84" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1126</v>
       </c>
@@ -36481,8 +36746,11 @@
       <c r="DP84" t="s">
         <v>1306</v>
       </c>
+      <c r="DQ84" s="3">
+        <v>199</v>
+      </c>
     </row>
-    <row r="85" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>394</v>
       </c>
@@ -36843,8 +37111,11 @@
       <c r="DP85" t="s">
         <v>434</v>
       </c>
+      <c r="DQ85" s="3">
+        <v>245</v>
+      </c>
     </row>
-    <row r="86" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1472</v>
       </c>
@@ -37205,8 +37476,11 @@
       <c r="DP86" t="s">
         <v>1506</v>
       </c>
+      <c r="DQ86" s="3">
+        <v>229</v>
+      </c>
     </row>
-    <row r="87" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1507</v>
       </c>
@@ -37567,8 +37841,11 @@
       <c r="DP87" t="s">
         <v>183</v>
       </c>
+      <c r="DQ87" s="3">
+        <v>259</v>
+      </c>
     </row>
-    <row r="88" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>254</v>
       </c>
@@ -37929,8 +38206,11 @@
       <c r="DP88" t="s">
         <v>469</v>
       </c>
+      <c r="DQ88" s="3">
+        <v>220</v>
+      </c>
     </row>
-    <row r="89" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1519</v>
       </c>
@@ -38291,8 +38571,9 @@
       <c r="DP89" t="s">
         <v>778</v>
       </c>
+      <c r="DQ89" s="3"/>
     </row>
-    <row r="90" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1323</v>
       </c>
@@ -38653,8 +38934,11 @@
       <c r="DP90" t="s">
         <v>509</v>
       </c>
+      <c r="DQ90" s="3">
+        <v>216</v>
+      </c>
     </row>
-    <row r="91" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>245</v>
       </c>
@@ -39015,8 +39299,11 @@
       <c r="DP91" t="s">
         <v>804</v>
       </c>
+      <c r="DQ91" s="3">
+        <v>259</v>
+      </c>
     </row>
-    <row r="92" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1527</v>
       </c>
@@ -39377,8 +39664,11 @@
       <c r="DP92" t="s">
         <v>294</v>
       </c>
+      <c r="DQ92" s="3">
+        <v>224</v>
+      </c>
     </row>
-    <row r="93" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1534</v>
       </c>
@@ -39739,8 +40029,11 @@
       <c r="DP93" t="s">
         <v>746</v>
       </c>
+      <c r="DQ93" s="3">
+        <v>225</v>
+      </c>
     </row>
-    <row r="94" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1563</v>
       </c>
@@ -40101,8 +40394,11 @@
       <c r="DP94" t="s">
         <v>1504</v>
       </c>
+      <c r="DQ94" s="3">
+        <v>311</v>
+      </c>
     </row>
-    <row r="95" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1577</v>
       </c>
@@ -40463,8 +40759,11 @@
       <c r="DP95" t="s">
         <v>508</v>
       </c>
+      <c r="DQ95" s="3">
+        <v>236</v>
+      </c>
     </row>
-    <row r="96" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>344</v>
       </c>
@@ -40825,8 +41124,11 @@
       <c r="DP96" t="s">
         <v>427</v>
       </c>
+      <c r="DQ96" s="3">
+        <v>255</v>
+      </c>
     </row>
-    <row r="97" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1121</v>
       </c>
@@ -41187,8 +41489,11 @@
       <c r="DP97" t="s">
         <v>430</v>
       </c>
+      <c r="DQ97" s="3">
+        <v>231</v>
+      </c>
     </row>
-    <row r="98" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>248</v>
       </c>
@@ -41549,8 +41854,11 @@
       <c r="DP98" t="s">
         <v>802</v>
       </c>
+      <c r="DQ98" s="3">
+        <v>192</v>
+      </c>
     </row>
-    <row r="99" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1458</v>
       </c>
@@ -41911,8 +42219,11 @@
       <c r="DP99" t="s">
         <v>333</v>
       </c>
+      <c r="DQ99" s="3">
+        <v>202</v>
+      </c>
     </row>
-    <row r="100" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1592</v>
       </c>
@@ -42273,8 +42584,11 @@
       <c r="DP100" t="s">
         <v>525</v>
       </c>
+      <c r="DQ100" s="3">
+        <v>215</v>
+      </c>
     </row>
-    <row r="101" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>400</v>
       </c>
@@ -42635,8 +42949,11 @@
       <c r="DP101" t="s">
         <v>426</v>
       </c>
+      <c r="DQ101" s="3">
+        <v>216</v>
+      </c>
     </row>
-    <row r="102" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1563</v>
       </c>
@@ -42997,8 +43314,11 @@
       <c r="DP102" t="s">
         <v>1504</v>
       </c>
+      <c r="DQ102" s="3">
+        <v>219</v>
+      </c>
     </row>
-    <row r="103" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1597</v>
       </c>
@@ -43359,8 +43679,11 @@
       <c r="DP103" t="s">
         <v>750</v>
       </c>
+      <c r="DQ103" s="3">
+        <v>222</v>
+      </c>
     </row>
-    <row r="104" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1437</v>
       </c>
@@ -43721,8 +44044,11 @@
       <c r="DP104" t="s">
         <v>805</v>
       </c>
+      <c r="DQ104" s="3">
+        <v>244</v>
+      </c>
     </row>
-    <row r="105" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1633</v>
       </c>
@@ -44083,8 +44409,11 @@
       <c r="DP105" t="s">
         <v>1648</v>
       </c>
+      <c r="DQ105" s="3">
+        <v>249</v>
+      </c>
     </row>
-    <row r="106" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1126</v>
       </c>
@@ -44445,8 +44774,11 @@
       <c r="DP106" t="s">
         <v>1306</v>
       </c>
+      <c r="DQ106" s="3">
+        <v>214</v>
+      </c>
     </row>
-    <row r="107" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>812</v>
       </c>
@@ -44807,8 +45139,11 @@
       <c r="DP107" t="s">
         <v>329</v>
       </c>
+      <c r="DQ107" s="3">
+        <v>225</v>
+      </c>
     </row>
-    <row r="108" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>832</v>
       </c>
@@ -45169,8 +45504,11 @@
       <c r="DP108" t="s">
         <v>507</v>
       </c>
+      <c r="DQ108" s="3">
+        <v>257</v>
+      </c>
     </row>
-    <row r="109" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>446</v>
       </c>
@@ -45531,8 +45869,11 @@
       <c r="DP109" t="s">
         <v>805</v>
       </c>
+      <c r="DQ109" s="3">
+        <v>243</v>
+      </c>
     </row>
-    <row r="110" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>858</v>
       </c>
@@ -45893,8 +46234,11 @@
       <c r="DP110" t="s">
         <v>382</v>
       </c>
+      <c r="DQ110" s="3">
+        <v>211</v>
+      </c>
     </row>
-    <row r="111" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>446</v>
       </c>
@@ -46255,8 +46599,11 @@
       <c r="DP111" t="s">
         <v>883</v>
       </c>
+      <c r="DQ111" s="3">
+        <v>198</v>
+      </c>
     </row>
-    <row r="112" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>659</v>
       </c>
@@ -46617,8 +46964,11 @@
       <c r="DP112" t="s">
         <v>183</v>
       </c>
+      <c r="DQ112" s="3">
+        <v>174</v>
+      </c>
     </row>
-    <row r="113" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1411</v>
       </c>
@@ -46979,8 +47329,11 @@
       <c r="DP113" t="s">
         <v>1338</v>
       </c>
+      <c r="DQ113" s="3">
+        <v>190</v>
+      </c>
     </row>
-    <row r="114" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1514</v>
       </c>
@@ -47341,8 +47694,11 @@
       <c r="DP114" t="s">
         <v>293</v>
       </c>
+      <c r="DQ114" s="3">
+        <v>174</v>
+      </c>
     </row>
-    <row r="115" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>393</v>
       </c>
@@ -47703,8 +48059,11 @@
       <c r="DP115" t="s">
         <v>193</v>
       </c>
+      <c r="DQ115" s="3">
+        <v>205</v>
+      </c>
     </row>
-    <row r="116" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>437</v>
       </c>
@@ -48065,8 +48424,11 @@
       <c r="DP116" t="s">
         <v>384</v>
       </c>
+      <c r="DQ116" s="3">
+        <v>167</v>
+      </c>
     </row>
-    <row r="117" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>250</v>
       </c>
@@ -48427,8 +48789,11 @@
       <c r="DP117" t="s">
         <v>508</v>
       </c>
+      <c r="DQ117" s="3">
+        <v>222</v>
+      </c>
     </row>
-    <row r="118" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>228</v>
       </c>
@@ -48789,8 +49154,11 @@
       <c r="DP118" t="s">
         <v>1403</v>
       </c>
+      <c r="DQ118" s="3">
+        <v>158</v>
+      </c>
     </row>
-    <row r="119" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1199</v>
       </c>
@@ -49151,8 +49519,11 @@
       <c r="DP119" t="s">
         <v>805</v>
       </c>
+      <c r="DQ119" s="3">
+        <v>234</v>
+      </c>
     </row>
-    <row r="120" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1109</v>
       </c>
@@ -49513,8 +49884,11 @@
       <c r="DP120" t="s">
         <v>385</v>
       </c>
+      <c r="DQ120" s="3">
+        <v>171</v>
+      </c>
     </row>
-    <row r="121" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1670</v>
       </c>
@@ -49875,8 +50249,11 @@
       <c r="DP121" t="s">
         <v>158</v>
       </c>
+      <c r="DQ121" s="3">
+        <v>245</v>
+      </c>
     </row>
-    <row r="122" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1676</v>
       </c>
@@ -50237,8 +50614,11 @@
       <c r="DP122" t="s">
         <v>193</v>
       </c>
+      <c r="DQ122" s="3">
+        <v>210</v>
+      </c>
     </row>
-    <row r="123" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>815</v>
       </c>
@@ -50599,8 +50979,11 @@
       <c r="DP123" t="s">
         <v>384</v>
       </c>
+      <c r="DQ123" s="3">
+        <v>236</v>
+      </c>
     </row>
-    <row r="124" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1456</v>
       </c>
@@ -50961,8 +51344,11 @@
       <c r="DP124" t="s">
         <v>802</v>
       </c>
+      <c r="DQ124" s="3">
+        <v>271</v>
+      </c>
     </row>
-    <row r="125" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>338</v>
       </c>
@@ -51323,8 +51709,11 @@
       <c r="DP125" t="s">
         <v>805</v>
       </c>
+      <c r="DQ125" s="3">
+        <v>190</v>
+      </c>
     </row>
-    <row r="126" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1686</v>
       </c>
@@ -51685,8 +52074,11 @@
       <c r="DP126" t="s">
         <v>1701</v>
       </c>
+      <c r="DQ126" s="3">
+        <v>184</v>
+      </c>
     </row>
-    <row r="127" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1262</v>
       </c>
@@ -52047,8 +52439,11 @@
       <c r="DP127" t="s">
         <v>184</v>
       </c>
+      <c r="DQ127" s="3">
+        <v>204</v>
+      </c>
     </row>
-    <row r="128" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>196</v>
       </c>
@@ -52409,8 +52804,11 @@
       <c r="DP128" t="s">
         <v>427</v>
       </c>
+      <c r="DQ128" s="3">
+        <v>249</v>
+      </c>
     </row>
-    <row r="129" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1712</v>
       </c>
@@ -52771,8 +53169,11 @@
       <c r="DP129" t="s">
         <v>427</v>
       </c>
+      <c r="DQ129" s="3">
+        <v>145</v>
+      </c>
     </row>
-    <row r="130" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>344</v>
       </c>
@@ -53133,8 +53534,11 @@
       <c r="DP130" t="s">
         <v>468</v>
       </c>
+      <c r="DQ130" s="3">
+        <v>200</v>
+      </c>
     </row>
-    <row r="131" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1713</v>
       </c>
@@ -53495,8 +53899,11 @@
       <c r="DP131" t="s">
         <v>191</v>
       </c>
+      <c r="DQ131" s="3">
+        <v>277</v>
+      </c>
     </row>
-    <row r="132" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1107</v>
       </c>
@@ -53857,8 +54264,11 @@
       <c r="DP132" t="s">
         <v>383</v>
       </c>
+      <c r="DQ132" s="3">
+        <v>230</v>
+      </c>
     </row>
-    <row r="133" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -54219,8 +54629,11 @@
       <c r="DP133" t="s">
         <v>184</v>
       </c>
+      <c r="DQ133" s="3">
+        <v>245</v>
+      </c>
     </row>
-    <row r="134" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1334</v>
       </c>
@@ -54581,8 +54994,11 @@
       <c r="DP134" t="s">
         <v>333</v>
       </c>
+      <c r="DQ134" s="3">
+        <v>241</v>
+      </c>
     </row>
-    <row r="135" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1248</v>
       </c>
@@ -54943,8 +55359,11 @@
       <c r="DP135" t="s">
         <v>382</v>
       </c>
+      <c r="DQ135" s="3">
+        <v>138</v>
+      </c>
     </row>
-    <row r="136" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>559</v>
       </c>
@@ -55305,8 +55724,11 @@
       <c r="DP136" t="s">
         <v>385</v>
       </c>
+      <c r="DQ136" s="3">
+        <v>239</v>
+      </c>
     </row>
-    <row r="137" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1729</v>
       </c>
@@ -55667,8 +56089,11 @@
       <c r="DP137" t="s">
         <v>192</v>
       </c>
+      <c r="DQ137" s="3">
+        <v>169</v>
+      </c>
     </row>
-    <row r="138" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1214</v>
       </c>
@@ -56029,8 +56454,11 @@
       <c r="DP138" t="s">
         <v>509</v>
       </c>
+      <c r="DQ138" s="3">
+        <v>225</v>
+      </c>
     </row>
-    <row r="139" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1326</v>
       </c>
@@ -56391,8 +56819,11 @@
       <c r="DP139" t="s">
         <v>508</v>
       </c>
+      <c r="DQ139" s="3">
+        <v>225</v>
+      </c>
     </row>
-    <row r="140" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>1111</v>
       </c>
@@ -56753,8 +57184,11 @@
       <c r="DP140" t="s">
         <v>427</v>
       </c>
+      <c r="DQ140" s="3">
+        <v>233</v>
+      </c>
     </row>
-    <row r="141" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1670</v>
       </c>
@@ -57115,8 +57549,11 @@
       <c r="DP141" t="s">
         <v>158</v>
       </c>
+      <c r="DQ141" s="3">
+        <v>208</v>
+      </c>
     </row>
-    <row r="142" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1020</v>
       </c>
@@ -57477,8 +57914,11 @@
       <c r="DP142" t="s">
         <v>883</v>
       </c>
+      <c r="DQ142" s="3">
+        <v>213</v>
+      </c>
     </row>
-    <row r="143" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>391</v>
       </c>
@@ -57839,8 +58279,11 @@
       <c r="DP143" t="s">
         <v>468</v>
       </c>
+      <c r="DQ143" s="3">
+        <v>273</v>
+      </c>
     </row>
-    <row r="144" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1744</v>
       </c>
@@ -58201,8 +58644,11 @@
       <c r="DP144" t="s">
         <v>803</v>
       </c>
+      <c r="DQ144" s="3">
+        <v>251</v>
+      </c>
     </row>
-    <row r="145" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1365</v>
       </c>
@@ -58563,8 +59009,11 @@
       <c r="DP145" t="s">
         <v>508</v>
       </c>
+      <c r="DQ145" s="3">
+        <v>208</v>
+      </c>
     </row>
-    <row r="146" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>1202</v>
       </c>
@@ -58925,8 +59374,11 @@
       <c r="DP146" t="s">
         <v>183</v>
       </c>
+      <c r="DQ146" s="3">
+        <v>273</v>
+      </c>
     </row>
-    <row r="147" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1752</v>
       </c>
@@ -59287,8 +59739,11 @@
       <c r="DP147" t="s">
         <v>1817</v>
       </c>
+      <c r="DQ147" s="3">
+        <v>226</v>
+      </c>
     </row>
-    <row r="148" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>659</v>
       </c>
@@ -59649,8 +60104,11 @@
       <c r="DP148">
         <v>71</v>
       </c>
+      <c r="DQ148" s="3">
+        <v>244</v>
+      </c>
     </row>
-    <row r="149" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>1176</v>
       </c>
@@ -60011,8 +60469,11 @@
       <c r="DP149" t="s">
         <v>332</v>
       </c>
+      <c r="DQ149" s="3">
+        <v>254</v>
+      </c>
     </row>
-    <row r="150" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>437</v>
       </c>
@@ -60373,8 +60834,9 @@
       <c r="DP150" t="s">
         <v>331</v>
       </c>
+      <c r="DQ150" s="3"/>
     </row>
-    <row r="151" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1507</v>
       </c>
@@ -60735,8 +61197,11 @@
       <c r="DP151" t="s">
         <v>293</v>
       </c>
+      <c r="DQ151" s="3">
+        <v>196</v>
+      </c>
     </row>
-    <row r="152" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1365</v>
       </c>
@@ -61097,8 +61562,11 @@
       <c r="DP152" t="s">
         <v>508</v>
       </c>
+      <c r="DQ152" s="3">
+        <v>185</v>
+      </c>
     </row>
-    <row r="153" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1828</v>
       </c>
@@ -61459,8 +61927,11 @@
       <c r="DP153" t="s">
         <v>1871</v>
       </c>
+      <c r="DQ153" s="3">
+        <v>265</v>
+      </c>
     </row>
-    <row r="154" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1246</v>
       </c>
@@ -61821,8 +62292,11 @@
       <c r="DP154" t="s">
         <v>428</v>
       </c>
+      <c r="DQ154" s="3">
+        <v>290</v>
+      </c>
     </row>
-    <row r="155" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1872</v>
       </c>
@@ -62183,8 +62657,11 @@
       <c r="DP155" t="s">
         <v>191</v>
       </c>
+      <c r="DQ155" s="3">
+        <v>216</v>
+      </c>
     </row>
-    <row r="156" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1880</v>
       </c>
@@ -62545,8 +63022,11 @@
       <c r="DP156" t="s">
         <v>294</v>
       </c>
+      <c r="DQ156" s="3">
+        <v>267</v>
+      </c>
     </row>
-    <row r="157" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1883</v>
       </c>
@@ -62906,6 +63386,165 @@
       </c>
       <c r="DP157" t="s">
         <v>188</v>
+      </c>
+      <c r="DQ157" s="3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="158" spans="1:121" x14ac:dyDescent="0.25">
+      <c r="DQ158" s="3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="159" spans="1:121" x14ac:dyDescent="0.25">
+      <c r="DQ159" s="3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="160" spans="1:121" x14ac:dyDescent="0.25">
+      <c r="DQ160" s="3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="161" spans="121:121" x14ac:dyDescent="0.25">
+      <c r="DQ161" s="3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="162" spans="121:121" x14ac:dyDescent="0.25">
+      <c r="DQ162" s="3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="163" spans="121:121" x14ac:dyDescent="0.25">
+      <c r="DQ163" s="3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="164" spans="121:121" x14ac:dyDescent="0.25">
+      <c r="DQ164" s="3"/>
+    </row>
+    <row r="165" spans="121:121" x14ac:dyDescent="0.25">
+      <c r="DQ165" s="3"/>
+    </row>
+    <row r="166" spans="121:121" x14ac:dyDescent="0.25">
+      <c r="DQ166" s="3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" spans="121:121" x14ac:dyDescent="0.25">
+      <c r="DQ167" s="3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="168" spans="121:121" x14ac:dyDescent="0.25">
+      <c r="DQ168" s="3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="169" spans="121:121" x14ac:dyDescent="0.25">
+      <c r="DQ169" s="3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="170" spans="121:121" x14ac:dyDescent="0.25">
+      <c r="DQ170" s="3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="171" spans="121:121" x14ac:dyDescent="0.25">
+      <c r="DQ171" s="3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="172" spans="121:121" x14ac:dyDescent="0.25">
+      <c r="DQ172" s="3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="173" spans="121:121" x14ac:dyDescent="0.25">
+      <c r="DQ173" s="3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="174" spans="121:121" x14ac:dyDescent="0.25">
+      <c r="DQ174" s="3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="175" spans="121:121" x14ac:dyDescent="0.25">
+      <c r="DQ175" s="3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="176" spans="121:121" x14ac:dyDescent="0.25">
+      <c r="DQ176" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="177" spans="121:121" x14ac:dyDescent="0.25">
+      <c r="DQ177" s="3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="178" spans="121:121" x14ac:dyDescent="0.25">
+      <c r="DQ178" s="3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="179" spans="121:121" x14ac:dyDescent="0.25">
+      <c r="DQ179" s="3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="180" spans="121:121" x14ac:dyDescent="0.25">
+      <c r="DQ180" s="3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="181" spans="121:121" x14ac:dyDescent="0.25">
+      <c r="DQ181" s="3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="182" spans="121:121" x14ac:dyDescent="0.25">
+      <c r="DQ182" s="3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="183" spans="121:121" x14ac:dyDescent="0.25">
+      <c r="DQ183" s="3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184" spans="121:121" x14ac:dyDescent="0.25">
+      <c r="DQ184" s="3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="185" spans="121:121" x14ac:dyDescent="0.25">
+      <c r="DQ185" s="3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="186" spans="121:121" x14ac:dyDescent="0.25">
+      <c r="DQ186" s="3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="187" spans="121:121" x14ac:dyDescent="0.25">
+      <c r="DQ187" s="3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="188" spans="121:121" x14ac:dyDescent="0.25">
+      <c r="DQ188" s="3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="189" spans="121:121" x14ac:dyDescent="0.25">
+      <c r="DQ189" s="3">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
